--- a/medicine/Handicap/Temple_Grandin_(téléfilm)/Temple_Grandin_(téléfilm).xlsx
+++ b/medicine/Handicap/Temple_Grandin_(téléfilm)/Temple_Grandin_(téléfilm).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Temple_Grandin_(t%C3%A9l%C3%A9film)</t>
+          <t>Temple_Grandin_(téléfilm)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Temple Grandin est un téléfilm américain réalisé par Mick Jackson, tourné pour la télévision en 2010.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Temple_Grandin_(t%C3%A9l%C3%A9film)</t>
+          <t>Temple_Grandin_(téléfilm)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Temple Grandin est une femme autiste qui a révolutionné les pratiques de traitement des animaux dans les ranchs et les abattoirs.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Temple_Grandin_(t%C3%A9l%C3%A9film)</t>
+          <t>Temple_Grandin_(téléfilm)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Temple Grandin
 Réalisation : Mick Jackson
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Temple_Grandin_(t%C3%A9l%C3%A9film)</t>
+          <t>Temple_Grandin_(téléfilm)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Claire Danes (VF : Élisabeth Ventura) : Temple Grandin
@@ -630,7 +648,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Temple_Grandin_(t%C3%A9l%C3%A9film)</t>
+          <t>Temple_Grandin_(téléfilm)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -648,7 +666,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film a été tourné en studio à Austin Studios, 1901 E. 51st Street, Austin, Texas, ainsi que dans Austin, Bastrop, Dallas, Georgetown et Lockhart, au Texas.
 Il a tout d'abord été diffusé en 2010 sur HBO. En France, il a été une première fois diffusé le 23 décembre 2011 sur Arte.
@@ -662,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Temple_Grandin_(t%C3%A9l%C3%A9film)</t>
+          <t>Temple_Grandin_(téléfilm)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -680,7 +700,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2011 : American Cinema Editors : Eddie, catégorie Best Edited Miniseries or Motion Picture for Television pour Leo Trombetta
 2011 : Directors Guild of America : DGA Award, catégorie Outstanding Directorial Achievement in Movies for Television pour Mick Jackson
